--- a/Seleniumjava/data/Data.xlsx
+++ b/Seleniumjava/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15030" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="4140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Testcase1</t>
   </si>
@@ -116,19 +116,50 @@
   </si>
   <si>
     <t>hello mona</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>moparinag.b@gmail.com</t>
+  </si>
+  <si>
+    <t>mona@2022</t>
+  </si>
+  <si>
+    <t>teha@gmail.com</t>
+  </si>
+  <si>
+    <t>mkvcv</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>actiTIME - Licenses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,13 +179,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
@@ -732,12 +769,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
